--- a/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
+++ b/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
@@ -46,7 +46,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>sdfdfg</t>
+    <t>test id</t>
   </si>
   <si>
     <t>group 1</t>
@@ -58,7 +58,7 @@
     <t>Buffer</t>
   </si>
   <si>
-    <t>2019-10-23</t>
+    <t>2019-10-24</t>
   </si>
   <si>
     <t>G/M_G1</t>

--- a/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
+++ b/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
@@ -46,46 +46,46 @@
     <t>Date</t>
   </si>
   <si>
-    <t>test id</t>
+    <t>this experiment</t>
   </si>
   <si>
     <t>group 1</t>
   </si>
   <si>
-    <t>Pyr/M_G1</t>
+    <t>Pyr/M</t>
   </si>
   <si>
     <t>Buffer</t>
   </si>
   <si>
-    <t>2019-10-24</t>
+    <t>2019-11-13</t>
   </si>
   <si>
-    <t>G/M_G1</t>
+    <t>G/M</t>
   </si>
   <si>
     <t>Mito</t>
   </si>
   <si>
-    <t>Pc/M_G1</t>
+    <t>Pc/M</t>
   </si>
   <si>
     <t>Substrate</t>
   </si>
   <si>
-    <t>S/R_G1</t>
+    <t>S/R</t>
   </si>
   <si>
     <t>PCR</t>
   </si>
   <si>
-    <t>AKG_G1</t>
+    <t>AKG</t>
   </si>
   <si>
     <t>Drug</t>
   </si>
   <si>
-    <t>P/G/M/S/O_G1</t>
+    <t>P/G/M/S/O</t>
   </si>
   <si>
     <t>Vehicle</t>

--- a/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
+++ b/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
@@ -58,7 +58,7 @@
     <t>Buffer</t>
   </si>
   <si>
-    <t>2019-11-13</t>
+    <t>2019-12-12</t>
   </si>
   <si>
     <t>G/M</t>
@@ -76,28 +76,28 @@
     <t>S/R</t>
   </si>
   <si>
+    <t>AKG</t>
+  </si>
+  <si>
     <t>PCR</t>
   </si>
   <si>
-    <t>AKG</t>
+    <t>P/G/M/S/O</t>
   </si>
   <si>
     <t>Drug</t>
   </si>
   <si>
-    <t>P/G/M/S/O</t>
+    <t>Oct/M</t>
   </si>
   <si>
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Oct/M</t>
+    <t>Ac/M</t>
   </si>
   <si>
     <t>FCCP</t>
-  </si>
-  <si>
-    <t>Ac/M</t>
   </si>
   <si>
     <t>Oligo</t>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s"/>
     </row>
@@ -579,10 +579,10 @@
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
       </c>
       <c r="I6" t="s"/>
     </row>
@@ -596,10 +596,10 @@
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
       <c r="I7" t="s"/>
     </row>
@@ -613,10 +613,10 @@
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
       </c>
       <c r="I8" t="s"/>
     </row>
@@ -630,12 +630,27 @@
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s"/>
+      <c r="I10" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4030,16 +4045,16 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4307,16 +4322,16 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7944,16 +7959,16 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
+++ b/output/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye/TMRM_Redox_Cells_2018-12-13_10_57_19_Derived_MultiDye.xlsx
@@ -46,7 +46,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>this experiment</t>
+    <t>experiment 1</t>
   </si>
   <si>
     <t>group 1</t>
@@ -76,28 +76,28 @@
     <t>S/R</t>
   </si>
   <si>
+    <t>PCR</t>
+  </si>
+  <si>
     <t>AKG</t>
   </si>
   <si>
-    <t>PCR</t>
+    <t>Drug</t>
   </si>
   <si>
     <t>P/G/M/S/O</t>
   </si>
   <si>
-    <t>Drug</t>
+    <t>Vehicle</t>
   </si>
   <si>
     <t>Oct/M</t>
   </si>
   <si>
-    <t>Vehicle</t>
+    <t>FCCP</t>
   </si>
   <si>
     <t>Ac/M</t>
-  </si>
-  <si>
-    <t>FCCP</t>
   </si>
   <si>
     <t>Oligo</t>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s"/>
     </row>
@@ -579,10 +579,10 @@
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s"/>
     </row>
@@ -596,10 +596,10 @@
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s"/>
     </row>
@@ -613,10 +613,10 @@
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s"/>
     </row>
@@ -630,27 +630,12 @@
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4045,16 +4030,16 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4322,16 +4307,16 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7959,16 +7944,16 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
